--- a/Lecturas_Dominion/Lecturas_Dominion/Upload/2_RELECTURA_CARGAR_1.xlsx
+++ b/Lecturas_Dominion/Lecturas_Dominion/Upload/2_RELECTURA_CARGAR_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FUENTES_LECTURAS\Lecturas_BureauVeritas\Lecturas_BureauVeritas\Lecturas_BureauVeritas\formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="596">
   <si>
     <t>Cuenta Contrato</t>
   </si>
@@ -1520,6 +1520,306 @@
   </si>
   <si>
     <t>HUAMAN OCAÑA  FORTUNATA</t>
+  </si>
+  <si>
+    <t>ID LECTURA</t>
+  </si>
+  <si>
+    <t>00010000</t>
+  </si>
+  <si>
+    <t>00010001</t>
+  </si>
+  <si>
+    <t>00010002</t>
+  </si>
+  <si>
+    <t>00010003</t>
+  </si>
+  <si>
+    <t>00010004</t>
+  </si>
+  <si>
+    <t>00010005</t>
+  </si>
+  <si>
+    <t>00010006</t>
+  </si>
+  <si>
+    <t>00010007</t>
+  </si>
+  <si>
+    <t>00010008</t>
+  </si>
+  <si>
+    <t>00010009</t>
+  </si>
+  <si>
+    <t>00010010</t>
+  </si>
+  <si>
+    <t>00010011</t>
+  </si>
+  <si>
+    <t>00010012</t>
+  </si>
+  <si>
+    <t>00010013</t>
+  </si>
+  <si>
+    <t>00010014</t>
+  </si>
+  <si>
+    <t>00010015</t>
+  </si>
+  <si>
+    <t>00010016</t>
+  </si>
+  <si>
+    <t>00010017</t>
+  </si>
+  <si>
+    <t>00010018</t>
+  </si>
+  <si>
+    <t>00010019</t>
+  </si>
+  <si>
+    <t>00010020</t>
+  </si>
+  <si>
+    <t>00010021</t>
+  </si>
+  <si>
+    <t>00010022</t>
+  </si>
+  <si>
+    <t>00010023</t>
+  </si>
+  <si>
+    <t>00010024</t>
+  </si>
+  <si>
+    <t>00010025</t>
+  </si>
+  <si>
+    <t>00010026</t>
+  </si>
+  <si>
+    <t>00010027</t>
+  </si>
+  <si>
+    <t>00010028</t>
+  </si>
+  <si>
+    <t>00010029</t>
+  </si>
+  <si>
+    <t>00010030</t>
+  </si>
+  <si>
+    <t>00010031</t>
+  </si>
+  <si>
+    <t>00010032</t>
+  </si>
+  <si>
+    <t>00010033</t>
+  </si>
+  <si>
+    <t>00010034</t>
+  </si>
+  <si>
+    <t>00010035</t>
+  </si>
+  <si>
+    <t>00010036</t>
+  </si>
+  <si>
+    <t>00010037</t>
+  </si>
+  <si>
+    <t>00010038</t>
+  </si>
+  <si>
+    <t>00010039</t>
+  </si>
+  <si>
+    <t>00010040</t>
+  </si>
+  <si>
+    <t>00010041</t>
+  </si>
+  <si>
+    <t>00010042</t>
+  </si>
+  <si>
+    <t>00010043</t>
+  </si>
+  <si>
+    <t>00010044</t>
+  </si>
+  <si>
+    <t>00010045</t>
+  </si>
+  <si>
+    <t>00010046</t>
+  </si>
+  <si>
+    <t>00010047</t>
+  </si>
+  <si>
+    <t>00010048</t>
+  </si>
+  <si>
+    <t>00010049</t>
+  </si>
+  <si>
+    <t>00010050</t>
+  </si>
+  <si>
+    <t>00010051</t>
+  </si>
+  <si>
+    <t>00010052</t>
+  </si>
+  <si>
+    <t>00010053</t>
+  </si>
+  <si>
+    <t>00010054</t>
+  </si>
+  <si>
+    <t>00010055</t>
+  </si>
+  <si>
+    <t>00010056</t>
+  </si>
+  <si>
+    <t>00010057</t>
+  </si>
+  <si>
+    <t>00010058</t>
+  </si>
+  <si>
+    <t>00010059</t>
+  </si>
+  <si>
+    <t>00010060</t>
+  </si>
+  <si>
+    <t>00010061</t>
+  </si>
+  <si>
+    <t>00010062</t>
+  </si>
+  <si>
+    <t>00010063</t>
+  </si>
+  <si>
+    <t>00010064</t>
+  </si>
+  <si>
+    <t>00010065</t>
+  </si>
+  <si>
+    <t>00010066</t>
+  </si>
+  <si>
+    <t>00010067</t>
+  </si>
+  <si>
+    <t>00010068</t>
+  </si>
+  <si>
+    <t>00010069</t>
+  </si>
+  <si>
+    <t>00010070</t>
+  </si>
+  <si>
+    <t>00010071</t>
+  </si>
+  <si>
+    <t>00010072</t>
+  </si>
+  <si>
+    <t>00010073</t>
+  </si>
+  <si>
+    <t>00010074</t>
+  </si>
+  <si>
+    <t>00010075</t>
+  </si>
+  <si>
+    <t>00010076</t>
+  </si>
+  <si>
+    <t>00010077</t>
+  </si>
+  <si>
+    <t>00010078</t>
+  </si>
+  <si>
+    <t>00010079</t>
+  </si>
+  <si>
+    <t>00010080</t>
+  </si>
+  <si>
+    <t>00010081</t>
+  </si>
+  <si>
+    <t>00010082</t>
+  </si>
+  <si>
+    <t>00010083</t>
+  </si>
+  <si>
+    <t>00010084</t>
+  </si>
+  <si>
+    <t>00010085</t>
+  </si>
+  <si>
+    <t>00010086</t>
+  </si>
+  <si>
+    <t>00010087</t>
+  </si>
+  <si>
+    <t>00010088</t>
+  </si>
+  <si>
+    <t>00010089</t>
+  </si>
+  <si>
+    <t>00010090</t>
+  </si>
+  <si>
+    <t>00010091</t>
+  </si>
+  <si>
+    <t>00010092</t>
+  </si>
+  <si>
+    <t>00010093</t>
+  </si>
+  <si>
+    <t>00010094</t>
+  </si>
+  <si>
+    <t>00010095</t>
+  </si>
+  <si>
+    <t>00010096</t>
+  </si>
+  <si>
+    <t>00010097</t>
+  </si>
+  <si>
+    <t>00010098</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1613,6 +1913,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1927,10 +2232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U100"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,9 +2254,10 @@
     <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2015,8 +2321,11 @@
       <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1167739</v>
       </c>
@@ -2027,7 +2336,7 @@
         <v>282</v>
       </c>
       <c r="D2" s="5">
-        <v>1005240</v>
+        <v>903951</v>
       </c>
       <c r="E2" s="5">
         <v>873605</v>
@@ -2074,8 +2383,11 @@
       <c r="U2" s="5" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V2" s="8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1061656</v>
       </c>
@@ -2129,8 +2441,11 @@
       <c r="U3" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3" s="8" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1061580</v>
       </c>
@@ -2182,8 +2497,11 @@
       <c r="U4" s="5" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4" s="8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1057616</v>
       </c>
@@ -2237,8 +2555,11 @@
       <c r="U5" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1035878</v>
       </c>
@@ -2292,8 +2613,11 @@
       <c r="U6" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6" s="8" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>932347</v>
       </c>
@@ -2347,8 +2671,11 @@
       <c r="U7" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>926904</v>
       </c>
@@ -2402,8 +2729,11 @@
       <c r="U8" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8" s="8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>918378</v>
       </c>
@@ -2459,8 +2789,11 @@
       <c r="U9" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>542396</v>
       </c>
@@ -2512,8 +2845,11 @@
       <c r="U10" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>516231</v>
       </c>
@@ -2571,8 +2907,11 @@
       <c r="U11" s="5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11" s="8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>468851</v>
       </c>
@@ -2626,8 +2965,11 @@
       <c r="U12" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>421596</v>
       </c>
@@ -2681,8 +3023,11 @@
       <c r="U13" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13" s="8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>211132</v>
       </c>
@@ -2736,8 +3081,11 @@
       <c r="U14" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>189692</v>
       </c>
@@ -2791,8 +3139,11 @@
       <c r="U15" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15" s="8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1158775</v>
       </c>
@@ -2848,8 +3199,11 @@
       <c r="U16" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>1154271</v>
       </c>
@@ -2903,8 +3257,11 @@
       <c r="U17" s="5" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>1148670</v>
       </c>
@@ -2960,8 +3317,11 @@
       <c r="U18" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>1147477</v>
       </c>
@@ -3015,8 +3375,11 @@
       <c r="U19" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>1144628</v>
       </c>
@@ -3068,8 +3431,11 @@
       <c r="U20" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>1143154</v>
       </c>
@@ -3127,8 +3493,11 @@
       <c r="U21" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>1138639</v>
       </c>
@@ -3180,8 +3549,11 @@
       <c r="U22" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>1137568</v>
       </c>
@@ -3235,8 +3607,11 @@
       <c r="U23" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>1137541</v>
       </c>
@@ -3290,8 +3665,11 @@
       <c r="U24" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>1136563</v>
       </c>
@@ -3349,8 +3727,11 @@
       <c r="U25" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25" s="8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>1133361</v>
       </c>
@@ -3406,8 +3787,11 @@
       <c r="U26" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V26" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>1124786</v>
       </c>
@@ -3461,8 +3845,11 @@
       <c r="U27" s="5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V27" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>1109130</v>
       </c>
@@ -3518,8 +3905,11 @@
       <c r="U28" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V28" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>1107527</v>
       </c>
@@ -3575,8 +3965,11 @@
       <c r="U29" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V29" s="8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>1105714</v>
       </c>
@@ -3632,8 +4025,11 @@
       <c r="U30" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V30" s="8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>1105062</v>
       </c>
@@ -3689,8 +4085,11 @@
       <c r="U31" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V31" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>1103125</v>
       </c>
@@ -3742,8 +4141,11 @@
       <c r="U32" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V32" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>1100864</v>
       </c>
@@ -3799,8 +4201,11 @@
       <c r="U33" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V33" s="8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>1098430</v>
       </c>
@@ -3854,8 +4259,11 @@
       <c r="U34" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V34" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>1087306</v>
       </c>
@@ -3911,8 +4319,11 @@
       <c r="U35" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V35" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>1086795</v>
       </c>
@@ -3966,8 +4377,11 @@
       <c r="U36" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V36" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>1078267</v>
       </c>
@@ -4021,8 +4435,11 @@
       <c r="U37" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V37" s="8" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>1074648</v>
       </c>
@@ -4076,8 +4493,11 @@
       <c r="U38" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V38" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>1070104</v>
       </c>
@@ -4131,8 +4551,11 @@
       <c r="U39" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V39" s="8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>1065649</v>
       </c>
@@ -4186,8 +4609,11 @@
       <c r="U40" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V40" s="8" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>1061955</v>
       </c>
@@ -4241,8 +4667,11 @@
       <c r="U41" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V41" s="8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>1059897</v>
       </c>
@@ -4296,8 +4725,11 @@
       <c r="U42" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V42" s="8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>1058076</v>
       </c>
@@ -4353,8 +4785,11 @@
       <c r="U43" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V43" s="8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>1057030</v>
       </c>
@@ -4410,8 +4845,11 @@
       <c r="U44" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V44" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>1041751</v>
       </c>
@@ -4465,8 +4903,11 @@
       <c r="U45" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V45" s="8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>1037699</v>
       </c>
@@ -4522,8 +4963,11 @@
       <c r="U46" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V46" s="8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>1034132</v>
       </c>
@@ -4577,8 +5021,11 @@
       <c r="U47" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V47" s="8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>1033535</v>
       </c>
@@ -4634,8 +5081,11 @@
       <c r="U48" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V48" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>1026233</v>
       </c>
@@ -4691,8 +5141,11 @@
       <c r="U49" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V49" s="8" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>997233</v>
       </c>
@@ -4748,8 +5201,11 @@
       <c r="U50" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V50" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>996392</v>
       </c>
@@ -4805,8 +5261,11 @@
       <c r="U51" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V51" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>995864</v>
       </c>
@@ -4864,8 +5323,11 @@
       <c r="U52" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V52" s="8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>993115</v>
       </c>
@@ -4923,8 +5385,11 @@
       <c r="U53" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V53" s="8" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>1097176</v>
       </c>
@@ -4978,8 +5443,11 @@
       <c r="U54" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V54" s="8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>985494</v>
       </c>
@@ -5033,8 +5501,11 @@
       <c r="U55" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V55" s="8" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>981870</v>
       </c>
@@ -5090,8 +5561,11 @@
       <c r="U56" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V56" s="8" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>972713</v>
       </c>
@@ -5145,8 +5619,11 @@
       <c r="U57" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V57" s="8" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>967284</v>
       </c>
@@ -5202,8 +5679,11 @@
       <c r="U58" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V58" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>960866</v>
       </c>
@@ -5257,8 +5737,11 @@
       <c r="U59" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V59" s="8" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>960865</v>
       </c>
@@ -5312,8 +5795,11 @@
       <c r="U60" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V60" s="8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>953062</v>
       </c>
@@ -5369,8 +5855,11 @@
       <c r="U61" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V61" s="8" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>945263</v>
       </c>
@@ -5428,8 +5917,11 @@
       <c r="U62" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V62" s="8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>942997</v>
       </c>
@@ -5489,8 +5981,11 @@
       <c r="U63" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V63" s="8" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>942993</v>
       </c>
@@ -5550,8 +6045,11 @@
       <c r="U64" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V64" s="8" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>941713</v>
       </c>
@@ -5605,8 +6103,11 @@
       <c r="U65" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V65" s="8" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>940113</v>
       </c>
@@ -5662,8 +6163,11 @@
       <c r="U66" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V66" s="8" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>929747</v>
       </c>
@@ -5719,8 +6223,11 @@
       <c r="U67" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V67" s="8" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>908925</v>
       </c>
@@ -5774,8 +6281,11 @@
       <c r="U68" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V68" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>904286</v>
       </c>
@@ -5831,8 +6341,11 @@
       <c r="U69" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V69" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>903286</v>
       </c>
@@ -5888,8 +6401,11 @@
       <c r="U70" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V70" s="8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>903124</v>
       </c>
@@ -5945,8 +6461,11 @@
       <c r="U71" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V71" s="8" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>903068</v>
       </c>
@@ -6002,8 +6521,11 @@
       <c r="U72" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V72" s="8" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>884863</v>
       </c>
@@ -6061,8 +6583,11 @@
       <c r="U73" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V73" s="8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>880066</v>
       </c>
@@ -6116,8 +6641,11 @@
       <c r="U74" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V74" s="8" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>878002</v>
       </c>
@@ -6177,8 +6705,11 @@
       <c r="U75" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V75" s="8" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>873397</v>
       </c>
@@ -6234,8 +6765,11 @@
       <c r="U76" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V76" s="8" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>856695</v>
       </c>
@@ -6291,8 +6825,11 @@
       <c r="U77" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V77" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>853638</v>
       </c>
@@ -6348,8 +6885,11 @@
       <c r="U78" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V78" s="8" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>848234</v>
       </c>
@@ -6405,8 +6945,11 @@
       <c r="U79" s="5" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V79" s="8" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>844215</v>
       </c>
@@ -6464,8 +7007,11 @@
       <c r="U80" s="5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V80" s="8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>830521</v>
       </c>
@@ -6517,8 +7063,11 @@
       <c r="U81" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V81" s="8" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>814734</v>
       </c>
@@ -6574,8 +7123,11 @@
       <c r="U82" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V82" s="8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>804106</v>
       </c>
@@ -6629,8 +7181,11 @@
       <c r="U83" s="5" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V83" s="8" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>829273</v>
       </c>
@@ -6686,8 +7241,11 @@
       <c r="U84" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V84" s="8" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>790033</v>
       </c>
@@ -6743,8 +7301,11 @@
       <c r="U85" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V85" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>781795</v>
       </c>
@@ -6802,8 +7363,11 @@
       <c r="U86" s="5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V86" s="8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>769534</v>
       </c>
@@ -6857,8 +7421,11 @@
       <c r="U87" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V87" s="8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>762959</v>
       </c>
@@ -6912,8 +7479,11 @@
       <c r="U88" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V88" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>752264</v>
       </c>
@@ -6971,8 +7541,11 @@
       <c r="U89" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V89" s="8" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>750513</v>
       </c>
@@ -7028,8 +7601,11 @@
       <c r="U90" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V90" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>742480</v>
       </c>
@@ -7083,8 +7659,11 @@
       <c r="U91" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V91" s="8" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>722117</v>
       </c>
@@ -7142,8 +7721,11 @@
       <c r="U92" s="5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V92" s="8" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>715981</v>
       </c>
@@ -7201,8 +7783,11 @@
       <c r="U93" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V93" s="8" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>714217</v>
       </c>
@@ -7256,8 +7841,11 @@
       <c r="U94" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V94" s="8" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>698928</v>
       </c>
@@ -7311,8 +7899,11 @@
       <c r="U95" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V95" s="8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>690284</v>
       </c>
@@ -7366,8 +7957,11 @@
       <c r="U96" s="5" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V96" s="8" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>671834</v>
       </c>
@@ -7423,8 +8017,11 @@
       <c r="U97" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V97" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>668417</v>
       </c>
@@ -7482,8 +8079,11 @@
       <c r="U98" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V98" s="8" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>663497</v>
       </c>
@@ -7541,8 +8141,11 @@
       <c r="U99" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V99" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>653777</v>
       </c>
@@ -7599,6 +8202,9 @@
       </c>
       <c r="U100" s="5" t="s">
         <v>167</v>
+      </c>
+      <c r="V100" s="8" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>
